--- a/notebooks/dados.xlsx
+++ b/notebooks/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro De Lucca\Documents\Insper\2° Semestre\CDados\22-2a-cd-p1-grupo_pedrolscf\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335A21BD-3873-4DF6-B4B4-376ADE694BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6893DFC-5BE5-445B-9C8E-2FEE5ABE35CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -9677,7 +9677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B168" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -9852,7 +9852,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>2412</v>
@@ -10059,7 +10059,7 @@
         <v>3</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
         <v>2455</v>
@@ -10082,7 +10082,7 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
         <v>2458</v>
@@ -10197,7 +10197,7 @@
         <v>5</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" t="s">
         <v>2458</v>
@@ -20655,7 +20655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -20894,7 +20894,7 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>2477</v>
@@ -20963,7 +20963,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s">
         <v>2551</v>
@@ -20986,7 +20986,7 @@
         <v>14</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s">
         <v>2829</v>
@@ -21032,7 +21032,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
         <v>2835</v>
@@ -21055,7 +21055,7 @@
         <v>15</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
         <v>2841</v>
@@ -21124,7 +21124,7 @@
         <v>16</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
         <v>2844</v>
@@ -21308,7 +21308,7 @@
         <v>21</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
         <v>2876</v>
@@ -22642,7 +22642,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" t="s">
         <v>2833</v>
@@ -22711,7 +22711,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" t="s">
         <v>2853</v>
@@ -28151,21 +28151,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D1C0B8B379AB7F4A83B1DF49B257CC00" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f8b32a28071c79c2c7df3dc7756a97a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2b213029-6727-4e9a-b9de-76830b0b0eef" xmlns:ns4="369cbb38-375c-4afd-9df0-a0a22bf5ebbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6155791bbb1b4d73defc0a1b7e144eb5" ns3:_="" ns4:_="">
     <xsd:import namespace="2b213029-6727-4e9a-b9de-76830b0b0eef"/>
@@ -28336,32 +28321,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2E6356D-7F55-4955-A442-77F2244EA48E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E1C0D8-73A4-4C05-BE39-8524980FD402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="369cbb38-375c-4afd-9df0-a0a22bf5ebbc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="2b213029-6727-4e9a-b9de-76830b0b0eef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B92549B6-3D84-4529-89A0-A36EEE27D555}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28378,4 +28353,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E1C0D8-73A4-4C05-BE39-8524980FD402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="369cbb38-375c-4afd-9df0-a0a22bf5ebbc"/>
+    <ds:schemaRef ds:uri="2b213029-6727-4e9a-b9de-76830b0b0eef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2E6356D-7F55-4955-A442-77F2244EA48E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>